--- a/out/test/Figori_algorithm_32.xlsx
+++ b/out/test/Figori_algorithm_32.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.94879999999999998</v>
+        <v>0.95150000000000001</v>
       </c>
       <c r="B1">
-        <v>0.69530000000000003</v>
+        <v>0.65749999999999997</v>
       </c>
       <c r="C1">
-        <v>0.66</v>
+        <v>0.95979999999999999</v>
       </c>
       <c r="D1">
-        <v>0.69740000000000002</v>
+        <v>0.93779999999999997</v>
       </c>
       <c r="E1">
+        <v>0.70184999999999997</v>
+      </c>
+      <c r="F1">
+        <v>0.70215000000000005</v>
+      </c>
+      <c r="G1">
+        <v>0.70120000000000005</v>
+      </c>
+      <c r="H1">
+        <v>0.66195000000000004</v>
+      </c>
+      <c r="I1">
+        <v>0.69694999999999996</v>
+      </c>
+      <c r="J1">
+        <v>0.69845000000000002</v>
+      </c>
+      <c r="K1">
+        <v>0.65425</v>
+      </c>
+      <c r="L1">
+        <v>0.69125000000000003</v>
+      </c>
+      <c r="M1">
+        <v>0.7056</v>
+      </c>
+      <c r="N1">
+        <v>0.69540000000000002</v>
+      </c>
+      <c r="O1">
+        <v>0.69604999999999995</v>
+      </c>
+      <c r="P1">
+        <v>0.70030000000000003</v>
+      </c>
+      <c r="Q1">
+        <v>0.70679999999999998</v>
+      </c>
+      <c r="R1">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="S1">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="T1">
+        <v>0.71004999999999996</v>
+      </c>
+      <c r="U1">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="V1">
+        <v>0.69474999999999998</v>
+      </c>
+      <c r="W1">
+        <v>0.95169999999999999</v>
+      </c>
+      <c r="X1">
+        <v>0.94664999999999999</v>
+      </c>
+      <c r="Y1">
+        <v>0.65554999999999997</v>
+      </c>
+      <c r="Z1">
+        <v>0.70215000000000005</v>
+      </c>
+      <c r="AA1">
+        <v>0.9506</v>
+      </c>
+      <c r="AB1">
+        <v>0.70309999999999995</v>
+      </c>
+      <c r="AC1">
+        <v>0.95730000000000004</v>
+      </c>
+      <c r="AD1">
+        <v>0.69310000000000005</v>
+      </c>
+      <c r="AE1">
+        <v>0.70145000000000002</v>
+      </c>
+      <c r="AF1">
+        <v>0.66795000000000004</v>
+      </c>
+      <c r="AG1">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="AH1">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="AI1">
+        <v>0.6532</v>
+      </c>
+      <c r="AJ1">
+        <v>0.69984999999999997</v>
+      </c>
+      <c r="AK1">
+        <v>0.69625000000000004</v>
+      </c>
+      <c r="AL1">
+        <v>0.69784999999999997</v>
+      </c>
+      <c r="AM1">
+        <v>0.70515000000000005</v>
+      </c>
+      <c r="AN1">
+        <v>0.70120000000000005</v>
+      </c>
+      <c r="AO1">
+        <v>0.66464999999999996</v>
+      </c>
+      <c r="AP1">
+        <v>0.69945000000000002</v>
+      </c>
+      <c r="AQ1">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="AR1">
+        <v>0.69135000000000002</v>
+      </c>
+      <c r="AS1">
         <v>0.70150000000000001</v>
       </c>
-      <c r="F1">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="G1">
-        <v>0.65210000000000001</v>
-      </c>
-      <c r="H1">
-        <v>0.94555</v>
-      </c>
-      <c r="I1">
-        <v>0.94940000000000002</v>
-      </c>
-      <c r="J1">
-        <v>0.70284999999999997</v>
-      </c>
-      <c r="K1">
-        <v>0.65805000000000002</v>
-      </c>
-      <c r="L1">
-        <v>0.69625000000000004</v>
-      </c>
-      <c r="M1">
-        <v>0.69840000000000002</v>
-      </c>
-      <c r="N1">
-        <v>0.65654999999999997</v>
-      </c>
-      <c r="O1">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="P1">
-        <v>0.69904999999999995</v>
-      </c>
-      <c r="Q1">
-        <v>0.94679999999999997</v>
-      </c>
-      <c r="R1">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="S1">
-        <v>0.66174999999999995</v>
-      </c>
-      <c r="T1">
-        <v>0.69755</v>
-      </c>
-      <c r="U1">
-        <v>0.7016</v>
-      </c>
-      <c r="V1">
-        <v>0.7016</v>
-      </c>
-      <c r="W1">
-        <v>0.70174999999999998</v>
-      </c>
-      <c r="X1">
-        <v>0.70220000000000005</v>
-      </c>
-      <c r="Y1">
-        <v>0.95209999999999995</v>
-      </c>
-      <c r="Z1">
-        <v>0.70109999999999995</v>
-      </c>
-      <c r="AA1">
-        <v>0.70035000000000003</v>
-      </c>
-      <c r="AB1">
-        <v>0.94750000000000001</v>
-      </c>
-      <c r="AC1">
-        <v>0.95240000000000002</v>
-      </c>
-      <c r="AD1">
-        <v>0.69474999999999998</v>
-      </c>
-      <c r="AE1">
-        <v>0.94779999999999998</v>
-      </c>
-      <c r="AF1">
-        <v>0.65995000000000004</v>
-      </c>
-      <c r="AG1">
-        <v>0.69369999999999998</v>
-      </c>
-      <c r="AH1">
-        <v>0.69545000000000001</v>
-      </c>
-      <c r="AI1">
-        <v>0.69874999999999998</v>
-      </c>
-      <c r="AJ1">
-        <v>0.95350000000000001</v>
-      </c>
-      <c r="AK1">
-        <v>0.69594999999999996</v>
-      </c>
-      <c r="AL1">
-        <v>0.69940000000000002</v>
-      </c>
-      <c r="AM1">
-        <v>0.69969999999999999</v>
-      </c>
-      <c r="AN1">
-        <v>0.70835000000000004</v>
-      </c>
-      <c r="AO1">
-        <v>0.70089999999999997</v>
-      </c>
-      <c r="AP1">
-        <v>0.69935000000000003</v>
-      </c>
-      <c r="AQ1">
-        <v>0.70740000000000003</v>
-      </c>
-      <c r="AR1">
-        <v>0.68825000000000003</v>
-      </c>
-      <c r="AS1">
-        <v>0.70215000000000005</v>
-      </c>
       <c r="AT1">
-        <v>0.69584999999999997</v>
+        <v>0.94640000000000002</v>
       </c>
       <c r="AU1">
-        <v>0.70220000000000005</v>
+        <v>0.65449999999999997</v>
       </c>
       <c r="AV1">
-        <v>0.65780000000000005</v>
+        <v>0.69710000000000005</v>
       </c>
       <c r="AW1">
-        <v>0.70220000000000005</v>
+        <v>0.66190000000000004</v>
       </c>
       <c r="AX1">
-        <v>0.94515000000000005</v>
+        <v>0.94730000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.92300000000000004</v>
+        <v>0.93420000000000003</v>
       </c>
       <c r="B2">
-        <v>0.69674999999999998</v>
+        <v>0.62090000000000001</v>
       </c>
       <c r="C2">
-        <v>0.58709999999999996</v>
+        <v>0.92</v>
       </c>
       <c r="D2">
-        <v>0.67845</v>
+        <v>0.93020000000000003</v>
       </c>
       <c r="E2">
-        <v>0.68140000000000001</v>
+        <v>0.92269999999999996</v>
       </c>
       <c r="F2">
-        <v>0.93389999999999995</v>
+        <v>0.67625000000000002</v>
       </c>
       <c r="G2">
-        <v>0.84219999999999995</v>
+        <v>0.67335</v>
       </c>
       <c r="H2">
-        <v>0.92705000000000004</v>
+        <v>0.62285000000000001</v>
       </c>
       <c r="I2">
-        <v>0.94850000000000001</v>
+        <v>0.9355</v>
       </c>
       <c r="J2">
-        <v>0.67925000000000002</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="K2">
-        <v>0.61545000000000005</v>
+        <v>0.8488</v>
       </c>
       <c r="L2">
-        <v>0.65375000000000005</v>
+        <v>0.67625000000000002</v>
       </c>
       <c r="M2">
-        <v>0.86219999999999997</v>
+        <v>0.69869999999999999</v>
       </c>
       <c r="N2">
-        <v>0.63534999999999997</v>
+        <v>0.68115000000000003</v>
       </c>
       <c r="O2">
-        <v>0.8952</v>
+        <v>0.65785000000000005</v>
       </c>
       <c r="P2">
-        <v>0.69284999999999997</v>
+        <v>0.66795000000000004</v>
       </c>
       <c r="Q2">
-        <v>0.92269999999999996</v>
+        <v>0.70669999999999999</v>
       </c>
       <c r="R2">
-        <v>0.96389999999999998</v>
+        <v>0.86185</v>
       </c>
       <c r="S2">
-        <v>0.86799999999999999</v>
+        <v>0.93910000000000005</v>
       </c>
       <c r="T2">
-        <v>0.68494999999999995</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="U2">
-        <v>0.92349999999999999</v>
+        <v>0.92769999999999997</v>
       </c>
       <c r="V2">
-        <v>0.69940000000000002</v>
+        <v>0.67769999999999997</v>
       </c>
       <c r="W2">
-        <v>0.67059999999999997</v>
+        <v>0.94089999999999996</v>
       </c>
       <c r="X2">
-        <v>0.70140000000000002</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="Y2">
-        <v>0.91739999999999999</v>
+        <v>0.59565000000000001</v>
       </c>
       <c r="Z2">
-        <v>0.90069999999999995</v>
+        <v>0.65349999999999997</v>
       </c>
       <c r="AA2">
-        <v>0.67025000000000001</v>
+        <v>0.91910000000000003</v>
       </c>
       <c r="AB2">
-        <v>0.93469999999999998</v>
+        <v>0.68069999999999997</v>
       </c>
       <c r="AC2">
-        <v>0.92710000000000004</v>
+        <v>0.97109999999999996</v>
       </c>
       <c r="AD2">
-        <v>0.65620000000000001</v>
+        <v>0.68369999999999997</v>
       </c>
       <c r="AE2">
-        <v>0.92400000000000004</v>
+        <v>0.67325000000000002</v>
       </c>
       <c r="AF2">
-        <v>0.70655000000000001</v>
+        <v>0.64480000000000004</v>
       </c>
       <c r="AG2">
-        <v>0.67525000000000002</v>
+        <v>0.87444999999999995</v>
       </c>
       <c r="AH2">
-        <v>0.68430000000000002</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="AI2">
-        <v>0.87539999999999996</v>
+        <v>0.59609999999999996</v>
       </c>
       <c r="AJ2">
-        <v>0.91400000000000003</v>
+        <v>0.64249999999999996</v>
       </c>
       <c r="AK2">
-        <v>0.66664999999999996</v>
+        <v>0.90680000000000005</v>
       </c>
       <c r="AL2">
-        <v>0.70279999999999998</v>
+        <v>0.6835</v>
       </c>
       <c r="AM2">
-        <v>0.64359999999999995</v>
+        <v>0.88449999999999995</v>
       </c>
       <c r="AN2">
-        <v>0.85329999999999995</v>
+        <v>0.65834999999999999</v>
       </c>
       <c r="AO2">
-        <v>0.65885000000000005</v>
+        <v>0.80279999999999996</v>
       </c>
       <c r="AP2">
-        <v>0.63439999999999996</v>
+        <v>0.85470000000000002</v>
       </c>
       <c r="AQ2">
-        <v>0.67435</v>
+        <v>0.9395</v>
       </c>
       <c r="AR2">
-        <v>0.85719999999999996</v>
+        <v>0.68989999999999996</v>
       </c>
       <c r="AS2">
-        <v>0.68095000000000006</v>
+        <v>0.89859999999999995</v>
       </c>
       <c r="AT2">
-        <v>0.67</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="AU2">
-        <v>0.65200000000000002</v>
+        <v>0.63265000000000005</v>
       </c>
       <c r="AV2">
-        <v>0.85360000000000003</v>
+        <v>0.70294999999999996</v>
       </c>
       <c r="AW2">
-        <v>0.89405000000000001</v>
+        <v>0.65680000000000005</v>
       </c>
       <c r="AX2">
-        <v>0.91925000000000001</v>
+        <v>0.94650000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.90925</v>
+        <v>0.85724999999999996</v>
       </c>
       <c r="B3">
-        <v>0.88400000000000001</v>
+        <v>0.54174999999999995</v>
       </c>
       <c r="C3">
-        <v>0.53315000000000001</v>
+        <v>0.85980000000000001</v>
       </c>
       <c r="D3">
-        <v>0.99250000000000005</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="E3">
-        <v>0.97260000000000002</v>
+        <v>0.90210000000000001</v>
       </c>
       <c r="F3">
-        <v>0.90169999999999995</v>
+        <v>0.75485000000000002</v>
       </c>
       <c r="G3">
-        <v>0.71499999999999997</v>
+        <v>0.85870000000000002</v>
       </c>
       <c r="H3">
-        <v>0.85870000000000002</v>
+        <v>0.52775000000000005</v>
       </c>
       <c r="I3">
-        <v>0.97655000000000003</v>
+        <v>0.92059999999999997</v>
       </c>
       <c r="J3">
-        <v>0.76439999999999997</v>
+        <v>0.82720000000000005</v>
       </c>
       <c r="K3">
-        <v>0.69030000000000002</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="L3">
-        <v>0.59719999999999995</v>
+        <v>0.76224999999999998</v>
       </c>
       <c r="M3">
-        <v>0.87419999999999998</v>
+        <v>0.62919999999999998</v>
       </c>
       <c r="N3">
-        <v>0.57904999999999995</v>
+        <v>0.9093</v>
       </c>
       <c r="O3">
-        <v>0.82174999999999998</v>
+        <v>0.59279999999999999</v>
       </c>
       <c r="P3">
-        <v>0.62949999999999995</v>
+        <v>0.82035000000000002</v>
       </c>
       <c r="Q3">
-        <v>0.89139999999999997</v>
+        <v>0.8952</v>
       </c>
       <c r="R3">
-        <v>0.95079999999999998</v>
+        <v>0.9466</v>
       </c>
       <c r="S3">
-        <v>0.73470000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="T3">
-        <v>0.64754999999999996</v>
+        <v>0.82130000000000003</v>
       </c>
       <c r="U3">
-        <v>0.88759999999999994</v>
+        <v>0.86529999999999996</v>
       </c>
       <c r="V3">
-        <v>0.82</v>
+        <v>0.64270000000000005</v>
       </c>
       <c r="W3">
-        <v>0.76244999999999996</v>
+        <v>0.85460000000000003</v>
       </c>
       <c r="X3">
-        <v>0.92600000000000005</v>
+        <v>0.83965000000000001</v>
       </c>
       <c r="Y3">
-        <v>0.86180000000000001</v>
+        <v>0.65010000000000001</v>
       </c>
       <c r="Z3">
-        <v>0.88749999999999996</v>
+        <v>0.97629999999999995</v>
       </c>
       <c r="AA3">
-        <v>0.97670000000000001</v>
+        <v>0.88919999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.86819999999999997</v>
+        <v>0.61245000000000005</v>
       </c>
       <c r="AC3">
-        <v>0.94010000000000005</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="AD3">
-        <v>0.96675</v>
+        <v>0.86480000000000001</v>
       </c>
       <c r="AE3">
-        <v>0.879</v>
+        <v>0.59114999999999995</v>
       </c>
       <c r="AF3">
-        <v>0.97370000000000001</v>
+        <v>0.78520000000000001</v>
       </c>
       <c r="AG3">
-        <v>0.93340000000000001</v>
+        <v>0.83220000000000005</v>
       </c>
       <c r="AH3">
-        <v>0.64670000000000005</v>
+        <v>0.85</v>
       </c>
       <c r="AI3">
-        <v>0.78900000000000003</v>
+        <v>0.7601</v>
       </c>
       <c r="AJ3">
-        <v>0.9113</v>
+        <v>0.87829999999999997</v>
       </c>
       <c r="AK3">
-        <v>0.82130000000000003</v>
+        <v>0.85819999999999996</v>
       </c>
       <c r="AL3">
-        <v>0.8639</v>
+        <v>0.66659999999999997</v>
       </c>
       <c r="AM3">
-        <v>0.69020000000000004</v>
+        <v>1</v>
       </c>
       <c r="AN3">
-        <v>0.81889999999999996</v>
+        <v>0.64985000000000004</v>
       </c>
       <c r="AO3">
-        <v>0.78910000000000002</v>
+        <v>0.67910000000000004</v>
       </c>
       <c r="AP3">
-        <v>0.69320000000000004</v>
+        <v>0.74629999999999996</v>
       </c>
       <c r="AQ3">
-        <v>0.63490000000000002</v>
+        <v>0.90505000000000002</v>
       </c>
       <c r="AR3">
-        <v>0.77890000000000004</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="AS3">
-        <v>0.7792</v>
+        <v>0.88970000000000005</v>
       </c>
       <c r="AT3">
-        <v>0.6018</v>
+        <v>0.95220000000000005</v>
       </c>
       <c r="AU3">
-        <v>0.86339999999999995</v>
+        <v>0.75439999999999996</v>
       </c>
       <c r="AV3">
-        <v>0.73319999999999996</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="AW3">
-        <v>0.86485000000000001</v>
+        <v>0.60975000000000001</v>
       </c>
       <c r="AX3">
-        <v>0.82269999999999999</v>
+        <v>0.87609999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.96699999999999997</v>
+        <v>0.77039999999999997</v>
       </c>
       <c r="B4">
-        <v>0.84409999999999996</v>
+        <v>0.48154999999999998</v>
       </c>
       <c r="C4">
-        <v>0.59260000000000002</v>
+        <v>0.66779999999999995</v>
       </c>
       <c r="D4">
-        <v>0.98340000000000005</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="E4">
-        <v>0.94369999999999998</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="F4">
-        <v>0.90849999999999997</v>
+        <v>0.88849999999999996</v>
       </c>
       <c r="G4">
-        <v>0.63300000000000001</v>
+        <v>0.71379999999999999</v>
       </c>
       <c r="H4">
-        <v>0.81140000000000001</v>
+        <v>0.66849999999999998</v>
       </c>
       <c r="I4">
-        <v>0.93069999999999997</v>
+        <v>0.87490000000000001</v>
       </c>
       <c r="J4">
-        <v>0.72460000000000002</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="K4">
-        <v>0.73829999999999996</v>
+        <v>0.85340000000000005</v>
       </c>
       <c r="L4">
-        <v>0.50819999999999999</v>
+        <v>0.8004</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="N4">
-        <v>0.66920000000000002</v>
+        <v>0.86580000000000001</v>
       </c>
       <c r="O4">
-        <v>0.9214</v>
+        <v>0.66080000000000005</v>
       </c>
       <c r="P4">
-        <v>0.56664999999999999</v>
+        <v>0.75295000000000001</v>
       </c>
       <c r="Q4">
-        <v>0.77900000000000003</v>
+        <v>0.93459999999999999</v>
       </c>
       <c r="R4">
-        <v>0.88800000000000001</v>
+        <v>0.83709999999999996</v>
       </c>
       <c r="S4">
-        <v>0.94730000000000003</v>
+        <v>0.68810000000000004</v>
       </c>
       <c r="T4">
-        <v>0.68674999999999997</v>
+        <v>0.7419</v>
       </c>
       <c r="U4">
-        <v>0.95450000000000002</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="V4">
-        <v>0.78610000000000002</v>
+        <v>0.62209999999999999</v>
       </c>
       <c r="W4">
-        <v>0.6694</v>
+        <v>0.73550000000000004</v>
       </c>
       <c r="X4">
-        <v>0.79379999999999995</v>
+        <v>0.74295</v>
       </c>
       <c r="Y4">
-        <v>0.83120000000000005</v>
+        <v>0.73860000000000003</v>
       </c>
       <c r="Z4">
-        <v>0.82669999999999999</v>
+        <v>0.9194</v>
       </c>
       <c r="AA4">
-        <v>0.94084999999999996</v>
+        <v>0.74480000000000002</v>
       </c>
       <c r="AB4">
-        <v>0.76149999999999995</v>
+        <v>0.83540000000000003</v>
       </c>
       <c r="AC4">
-        <v>0.92210000000000003</v>
+        <v>0.97619999999999996</v>
       </c>
       <c r="AD4">
-        <v>0.95089999999999997</v>
+        <v>0.97450000000000003</v>
       </c>
       <c r="AE4">
-        <v>0.96409999999999996</v>
+        <v>0.62870000000000004</v>
       </c>
       <c r="AF4">
-        <v>0.9163</v>
+        <v>0.66080000000000005</v>
       </c>
       <c r="AG4">
-        <v>0.96120000000000005</v>
+        <v>0.61040000000000005</v>
       </c>
       <c r="AH4">
-        <v>0.74950000000000006</v>
+        <v>0.76180000000000003</v>
       </c>
       <c r="AI4">
-        <v>0.60099999999999998</v>
+        <v>0.83440000000000003</v>
       </c>
       <c r="AJ4">
-        <v>0.83530000000000004</v>
+        <v>0.9728</v>
       </c>
       <c r="AK4">
-        <v>0.63549999999999995</v>
+        <v>0.82410000000000005</v>
       </c>
       <c r="AL4">
-        <v>0.75980000000000003</v>
+        <v>0.56294999999999995</v>
       </c>
       <c r="AM4">
-        <v>0.74319999999999997</v>
+        <v>0.99219999999999997</v>
       </c>
       <c r="AN4">
-        <v>0.75644999999999996</v>
+        <v>0.79830000000000001</v>
       </c>
       <c r="AO4">
-        <v>0.75949999999999995</v>
+        <v>0.64229999999999998</v>
       </c>
       <c r="AP4">
-        <v>0.74660000000000004</v>
+        <v>0.69689999999999996</v>
       </c>
       <c r="AQ4">
-        <v>0.72970000000000002</v>
+        <v>0.95984999999999998</v>
       </c>
       <c r="AR4">
-        <v>0.9032</v>
+        <v>0.71035000000000004</v>
       </c>
       <c r="AS4">
-        <v>0.66969999999999996</v>
+        <v>0.85970000000000002</v>
       </c>
       <c r="AT4">
-        <v>0.79890000000000005</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="AU4">
-        <v>0.80459999999999998</v>
+        <v>0.89229999999999998</v>
       </c>
       <c r="AV4">
-        <v>0.72719999999999996</v>
+        <v>0.82410000000000005</v>
       </c>
       <c r="AW4">
-        <v>0.81699999999999995</v>
+        <v>0.6179</v>
       </c>
       <c r="AX4">
-        <v>0.62680000000000002</v>
+        <v>0.77410000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.95499999999999996</v>
+        <v>0.54930000000000001</v>
       </c>
       <c r="B5">
-        <v>0.74350000000000005</v>
+        <v>0.49469999999999997</v>
       </c>
       <c r="C5">
-        <v>0.60740000000000005</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="D5">
-        <v>0.92679999999999996</v>
+        <v>0.77569999999999995</v>
       </c>
       <c r="E5">
-        <v>0.80730000000000002</v>
+        <v>0.83430000000000004</v>
       </c>
       <c r="F5">
-        <v>0.83020000000000005</v>
+        <v>0.87390000000000001</v>
       </c>
       <c r="G5">
-        <v>0.36420000000000002</v>
+        <v>0.7036</v>
       </c>
       <c r="H5">
-        <v>0.56810000000000005</v>
+        <v>0.59870000000000001</v>
       </c>
       <c r="I5">
-        <v>0.87380000000000002</v>
+        <v>0.85409999999999997</v>
       </c>
       <c r="J5">
-        <v>0.5776</v>
+        <v>0.71020000000000005</v>
       </c>
       <c r="K5">
-        <v>0.91300000000000003</v>
+        <v>0.72940000000000005</v>
       </c>
       <c r="L5">
-        <v>0.56930000000000003</v>
+        <v>0.88180000000000003</v>
       </c>
       <c r="M5">
-        <v>0.97919999999999996</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="N5">
-        <v>0.78290000000000004</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="O5">
-        <v>0.87619999999999998</v>
+        <v>0.70230000000000004</v>
       </c>
       <c r="P5">
-        <v>0.86560000000000004</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="Q5">
-        <v>0.88619999999999999</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="R5">
-        <v>0.86699999999999999</v>
+        <v>0.85260000000000002</v>
       </c>
       <c r="S5">
-        <v>0.90280000000000005</v>
+        <v>0.67569999999999997</v>
       </c>
       <c r="T5">
-        <v>0.68110000000000004</v>
+        <v>0.67979999999999996</v>
       </c>
       <c r="U5">
-        <v>0.94879999999999998</v>
+        <v>0.71870000000000001</v>
       </c>
       <c r="V5">
-        <v>0.70879999999999999</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="W5">
-        <v>0.44469999999999998</v>
+        <v>0.50260000000000005</v>
       </c>
       <c r="X5">
-        <v>0.92279999999999995</v>
+        <v>0.53505000000000003</v>
       </c>
       <c r="Y5">
-        <v>0.73260000000000003</v>
+        <v>0.66979999999999995</v>
       </c>
       <c r="Z5">
-        <v>0.88260000000000005</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="AA5">
-        <v>0.8861</v>
+        <v>0.49170000000000003</v>
       </c>
       <c r="AB5">
-        <v>0.64580000000000004</v>
+        <v>0.78979999999999995</v>
       </c>
       <c r="AC5">
-        <v>0.89429999999999998</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="AD5">
-        <v>0.85899999999999999</v>
+        <v>0.96970000000000001</v>
       </c>
       <c r="AE5">
-        <v>0.9476</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="AF5">
-        <v>0.90490000000000004</v>
+        <v>0.51049999999999995</v>
       </c>
       <c r="AG5">
-        <v>0.96030000000000004</v>
+        <v>0.59830000000000005</v>
       </c>
       <c r="AH5">
-        <v>0.48130000000000001</v>
+        <v>0.68810000000000004</v>
       </c>
       <c r="AI5">
-        <v>0.45689999999999997</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="AJ5">
-        <v>0.73929999999999996</v>
+        <v>0.99150000000000005</v>
       </c>
       <c r="AK5">
-        <v>0.69599999999999995</v>
+        <v>0.72560000000000002</v>
       </c>
       <c r="AL5">
-        <v>0.67349999999999999</v>
+        <v>0.66649999999999998</v>
       </c>
       <c r="AM5">
-        <v>0.6421</v>
+        <v>0.85750000000000004</v>
       </c>
       <c r="AN5">
-        <v>0.60580000000000001</v>
+        <v>0.73150000000000004</v>
       </c>
       <c r="AO5">
-        <v>0.68589999999999995</v>
+        <v>0.49669999999999997</v>
       </c>
       <c r="AP5">
-        <v>0.7298</v>
+        <v>0.65839999999999999</v>
       </c>
       <c r="AQ5">
-        <v>0.47599999999999998</v>
+        <v>0.97640000000000005</v>
       </c>
       <c r="AR5">
-        <v>0.88690000000000002</v>
+        <v>0.7651</v>
       </c>
       <c r="AS5">
-        <v>0.73009999999999997</v>
+        <v>0.78459999999999996</v>
       </c>
       <c r="AT5">
-        <v>0.93659999999999999</v>
+        <v>0.90780000000000005</v>
       </c>
       <c r="AU5">
-        <v>0.75409999999999999</v>
+        <v>0.7843</v>
       </c>
       <c r="AV5">
-        <v>0.84440000000000004</v>
+        <v>0.75960000000000005</v>
       </c>
       <c r="AW5">
-        <v>0.76419999999999999</v>
+        <v>0.54669999999999996</v>
       </c>
       <c r="AX5">
-        <v>0.64139999999999997</v>
+        <v>0.62849999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.82589999999999997</v>
+        <v>0.40889999999999999</v>
       </c>
       <c r="B6">
-        <v>0.73799999999999999</v>
+        <v>0.5615</v>
       </c>
       <c r="C6">
-        <v>0.72270000000000001</v>
+        <v>0.8569</v>
       </c>
       <c r="D6">
-        <v>0.89349999999999996</v>
+        <v>0.83</v>
       </c>
       <c r="E6">
-        <v>0.88109999999999999</v>
+        <v>0.7742</v>
       </c>
       <c r="F6">
-        <v>0.84279999999999999</v>
+        <v>0.84670000000000001</v>
       </c>
       <c r="G6">
-        <v>0.30080000000000001</v>
+        <v>0.79810000000000003</v>
       </c>
       <c r="H6">
-        <v>0.4919</v>
+        <v>0.63139999999999996</v>
       </c>
       <c r="I6">
-        <v>0.92100000000000004</v>
+        <v>0.87560000000000004</v>
       </c>
       <c r="J6">
-        <v>0.53400000000000003</v>
+        <v>0.55010000000000003</v>
       </c>
       <c r="K6">
-        <v>0.9173</v>
+        <v>0.75739999999999996</v>
       </c>
       <c r="L6">
-        <v>0.79090000000000005</v>
+        <v>0.84840000000000004</v>
       </c>
       <c r="M6">
-        <v>0.95569999999999999</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="N6">
-        <v>0.65669999999999995</v>
+        <v>0.81810000000000005</v>
       </c>
       <c r="O6">
-        <v>0.82255</v>
+        <v>0.57950000000000002</v>
       </c>
       <c r="P6">
-        <v>0.80610000000000004</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="Q6">
-        <v>0.81559999999999999</v>
+        <v>0.94450000000000001</v>
       </c>
       <c r="R6">
-        <v>0.82899999999999996</v>
+        <v>0.86229999999999996</v>
       </c>
       <c r="S6">
-        <v>0.88629999999999998</v>
+        <v>0.56089999999999995</v>
       </c>
       <c r="T6">
-        <v>0.63859999999999995</v>
+        <v>0.54820000000000002</v>
       </c>
       <c r="U6">
-        <v>0.81399999999999995</v>
+        <v>0.83940000000000003</v>
       </c>
       <c r="V6">
-        <v>0.48080000000000001</v>
+        <v>0.68759999999999999</v>
       </c>
       <c r="W6">
-        <v>0.33055000000000001</v>
+        <v>0.72189999999999999</v>
       </c>
       <c r="X6">
-        <v>0.97989999999999999</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="Y6">
-        <v>0.69310000000000005</v>
+        <v>0.53420000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.72230000000000005</v>
+        <v>0.88170000000000004</v>
       </c>
       <c r="AA6">
-        <v>0.83169999999999999</v>
+        <v>0.51829999999999998</v>
       </c>
       <c r="AB6">
-        <v>0.45739999999999997</v>
+        <v>0.78159999999999996</v>
       </c>
       <c r="AC6">
-        <v>0.81179999999999997</v>
+        <v>0.92949999999999999</v>
       </c>
       <c r="AD6">
-        <v>0.60609999999999997</v>
+        <v>0.91769999999999996</v>
       </c>
       <c r="AE6">
-        <v>0.8196</v>
+        <v>0.51780000000000004</v>
       </c>
       <c r="AF6">
-        <v>0.9153</v>
+        <v>0.6956</v>
       </c>
       <c r="AG6">
-        <v>0.9667</v>
+        <v>0.48920000000000002</v>
       </c>
       <c r="AH6">
-        <v>0.42870000000000003</v>
+        <v>0.54010000000000002</v>
       </c>
       <c r="AI6">
-        <v>0.57769999999999999</v>
+        <v>0.49259999999999998</v>
       </c>
       <c r="AJ6">
-        <v>0.55800000000000005</v>
+        <v>0.9405</v>
       </c>
       <c r="AK6">
-        <v>0.57399999999999995</v>
+        <v>0.83440000000000003</v>
       </c>
       <c r="AL6">
-        <v>0.57350000000000001</v>
+        <v>0.70069999999999999</v>
       </c>
       <c r="AM6">
-        <v>0.3624</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="AN6">
-        <v>0.59760000000000002</v>
+        <v>0.61270000000000002</v>
       </c>
       <c r="AO6">
-        <v>0.78749999999999998</v>
+        <v>0.33260000000000001</v>
       </c>
       <c r="AP6">
-        <v>0.59750000000000003</v>
+        <v>0.63160000000000005</v>
       </c>
       <c r="AQ6">
-        <v>0.438</v>
+        <v>0.85129999999999995</v>
       </c>
       <c r="AR6">
-        <v>0.87090000000000001</v>
+        <v>0.89810000000000001</v>
       </c>
       <c r="AS6">
-        <v>0.70599999999999996</v>
+        <v>0.66839999999999999</v>
       </c>
       <c r="AT6">
-        <v>0.89570000000000005</v>
+        <v>0.96179999999999999</v>
       </c>
       <c r="AU6">
-        <v>0.81910000000000005</v>
+        <v>0.83760000000000001</v>
       </c>
       <c r="AV6">
-        <v>0.78049999999999997</v>
+        <v>0.68440000000000001</v>
       </c>
       <c r="AW6">
-        <v>0.73480000000000001</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="AX6">
-        <v>0.82650000000000001</v>
+        <v>0.6633</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.53</v>
+        <v>0.55630000000000002</v>
       </c>
       <c r="B7">
-        <v>0.65920000000000001</v>
+        <v>0.48930000000000001</v>
       </c>
       <c r="C7">
-        <v>0.87139999999999995</v>
+        <v>0.83089999999999997</v>
       </c>
       <c r="D7">
-        <v>0.86040000000000005</v>
+        <v>0.755</v>
       </c>
       <c r="E7">
-        <v>0.75819999999999999</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="F7">
-        <v>0.66739999999999999</v>
+        <v>0.83209999999999995</v>
       </c>
       <c r="G7">
-        <v>0.18190000000000001</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="H7">
-        <v>0.52759999999999996</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="I7">
-        <v>0.75219999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="J7">
-        <v>0.56189999999999996</v>
+        <v>0.4879</v>
       </c>
       <c r="K7">
-        <v>0.94989999999999997</v>
+        <v>0.62150000000000005</v>
       </c>
       <c r="L7">
-        <v>0.52669999999999995</v>
+        <v>0.68469999999999998</v>
       </c>
       <c r="M7">
-        <v>0.91700000000000004</v>
+        <v>0.77149999999999996</v>
       </c>
       <c r="N7">
-        <v>0.76270000000000004</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="O7">
-        <v>0.79</v>
+        <v>0.3821</v>
       </c>
       <c r="P7">
-        <v>0.83740000000000003</v>
+        <v>0.66039999999999999</v>
       </c>
       <c r="Q7">
-        <v>0.8165</v>
+        <v>0.9173</v>
       </c>
       <c r="R7">
-        <v>0.84909999999999997</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="S7">
-        <v>0.70809999999999995</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="T7">
-        <v>0.80489999999999995</v>
+        <v>0.58840000000000003</v>
       </c>
       <c r="U7">
-        <v>0.70079999999999998</v>
+        <v>0.92179999999999995</v>
       </c>
       <c r="V7">
-        <v>0.47270000000000001</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="W7">
-        <v>0.56399999999999995</v>
+        <v>0.52690000000000003</v>
       </c>
       <c r="X7">
-        <v>0.96679999999999999</v>
+        <v>0.52939999999999998</v>
       </c>
       <c r="Y7">
-        <v>0.69110000000000005</v>
+        <v>0.54310000000000003</v>
       </c>
       <c r="Z7">
-        <v>0.53380000000000005</v>
+        <v>0.75549999999999995</v>
       </c>
       <c r="AA7">
-        <v>0.77310000000000001</v>
+        <v>0.7329</v>
       </c>
       <c r="AB7">
-        <v>0.50049999999999994</v>
+        <v>0.8589</v>
       </c>
       <c r="AC7">
-        <v>0.81010000000000004</v>
+        <v>0.81630000000000003</v>
       </c>
       <c r="AD7">
-        <v>0.44890000000000002</v>
+        <v>0.9546</v>
       </c>
       <c r="AE7">
-        <v>0.67059999999999997</v>
+        <v>0.71079999999999999</v>
       </c>
       <c r="AF7">
-        <v>0.90139999999999998</v>
+        <v>0.62060000000000004</v>
       </c>
       <c r="AG7">
-        <v>0.90980000000000005</v>
+        <v>0.2203</v>
       </c>
       <c r="AH7">
-        <v>0.315</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="AI7">
-        <v>0.50590000000000002</v>
+        <v>0.55059999999999998</v>
       </c>
       <c r="AJ7">
-        <v>0.70330000000000004</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="AK7">
-        <v>0.41460000000000002</v>
+        <v>0.76180000000000003</v>
       </c>
       <c r="AL7">
-        <v>0.48349999999999999</v>
+        <v>0.52410000000000001</v>
       </c>
       <c r="AM7">
-        <v>0.2954</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="AN7">
-        <v>0.53939999999999999</v>
+        <v>0.64910000000000001</v>
       </c>
       <c r="AO7">
-        <v>0.69730000000000003</v>
+        <v>0.45889999999999997</v>
       </c>
       <c r="AP7">
-        <v>0.56859999999999999</v>
+        <v>0.496</v>
       </c>
       <c r="AQ7">
-        <v>0.36299999999999999</v>
+        <v>0.69640000000000002</v>
       </c>
       <c r="AR7">
-        <v>0.93889999999999996</v>
+        <v>0.76559999999999995</v>
       </c>
       <c r="AS7">
-        <v>0.7621</v>
+        <v>0.57650000000000001</v>
       </c>
       <c r="AT7">
-        <v>0.84279999999999999</v>
+        <v>0.90210000000000001</v>
       </c>
       <c r="AU7">
-        <v>0.61580000000000001</v>
+        <v>0.73650000000000004</v>
       </c>
       <c r="AV7">
-        <v>0.78590000000000004</v>
+        <v>0.627</v>
       </c>
       <c r="AW7">
-        <v>0.83050000000000002</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="AX7">
-        <v>0.82269999999999999</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.46579999999999999</v>
+        <v>0.5121</v>
       </c>
       <c r="B8">
-        <v>0.39</v>
+        <v>0.44729999999999998</v>
       </c>
       <c r="C8">
-        <v>0.80710000000000004</v>
+        <v>0.69720000000000004</v>
       </c>
       <c r="D8">
-        <v>0.71460000000000001</v>
+        <v>0.84040000000000004</v>
       </c>
       <c r="E8">
-        <v>0.50660000000000005</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="F8">
-        <v>0.78300000000000003</v>
+        <v>0.90980000000000005</v>
       </c>
       <c r="G8">
-        <v>4.1200000000000001E-2</v>
+        <v>0.71479999999999999</v>
       </c>
       <c r="H8">
-        <v>0.6462</v>
+        <v>0.81540000000000001</v>
       </c>
       <c r="I8">
-        <v>0.70720000000000005</v>
+        <v>0.84130000000000005</v>
       </c>
       <c r="J8">
-        <v>0.56220000000000003</v>
+        <v>0.39650000000000002</v>
       </c>
       <c r="K8">
-        <v>0.83989999999999998</v>
+        <v>0.502</v>
       </c>
       <c r="L8">
-        <v>0.25340000000000001</v>
+        <v>0.77910000000000001</v>
       </c>
       <c r="M8">
-        <v>0.92500000000000004</v>
+        <v>0.93120000000000003</v>
       </c>
       <c r="N8">
-        <v>0.71799999999999997</v>
+        <v>0.5897</v>
       </c>
       <c r="O8">
-        <v>0.94030000000000002</v>
+        <v>0.2384</v>
       </c>
       <c r="P8">
-        <v>0.67430000000000001</v>
+        <v>0.61270000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.66279999999999994</v>
+        <v>0.89280000000000004</v>
       </c>
       <c r="R8">
-        <v>0.80120000000000002</v>
+        <v>0.68659999999999999</v>
       </c>
       <c r="S8">
-        <v>0.52090000000000003</v>
+        <v>0.66569999999999996</v>
       </c>
       <c r="T8">
-        <v>0.9546</v>
+        <v>0.56079999999999997</v>
       </c>
       <c r="U8">
-        <v>0.84650000000000003</v>
+        <v>0.86660000000000004</v>
       </c>
       <c r="V8">
-        <v>0.54179999999999995</v>
+        <v>0.71940000000000004</v>
       </c>
       <c r="W8">
-        <v>0.42270000000000002</v>
+        <v>0.61360000000000003</v>
       </c>
       <c r="X8">
-        <v>0.92059999999999997</v>
+        <v>0.60309999999999997</v>
       </c>
       <c r="Y8">
-        <v>0.78700000000000003</v>
+        <v>0.45240000000000002</v>
       </c>
       <c r="Z8">
-        <v>0.57040000000000002</v>
+        <v>0.61519999999999997</v>
       </c>
       <c r="AA8">
-        <v>0.6351</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="AB8">
-        <v>0.52959999999999996</v>
+        <v>0.87749999999999995</v>
       </c>
       <c r="AC8">
-        <v>0.97819999999999996</v>
+        <v>0.70369999999999999</v>
       </c>
       <c r="AD8">
-        <v>0.49270000000000003</v>
+        <v>0.85129999999999995</v>
       </c>
       <c r="AE8">
-        <v>0.69779999999999998</v>
+        <v>0.51529999999999998</v>
       </c>
       <c r="AF8">
-        <v>0.87760000000000005</v>
+        <v>0.64049999999999996</v>
       </c>
       <c r="AG8">
-        <v>0.97389999999999999</v>
+        <v>0.1789</v>
       </c>
       <c r="AH8">
-        <v>0.25040000000000001</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="AI8">
-        <v>0.44059999999999999</v>
+        <v>0.72570000000000001</v>
       </c>
       <c r="AJ8">
-        <v>0.55435000000000001</v>
+        <v>0.76990000000000003</v>
       </c>
       <c r="AK8">
-        <v>0.42170000000000002</v>
+        <v>0.53139999999999998</v>
       </c>
       <c r="AL8">
-        <v>0.71120000000000005</v>
+        <v>0.49480000000000002</v>
       </c>
       <c r="AM8">
-        <v>0.3322</v>
+        <v>0.37430000000000002</v>
       </c>
       <c r="AN8">
-        <v>0.48730000000000001</v>
+        <v>0.64019999999999999</v>
       </c>
       <c r="AO8">
-        <v>0.79549999999999998</v>
+        <v>0.5444</v>
       </c>
       <c r="AP8">
-        <v>0.50219999999999998</v>
+        <v>0.26219999999999999</v>
       </c>
       <c r="AQ8">
-        <v>0.45290000000000002</v>
+        <v>0.5696</v>
       </c>
       <c r="AR8">
-        <v>0.88139999999999996</v>
+        <v>0.62549999999999994</v>
       </c>
       <c r="AS8">
-        <v>0.83889999999999998</v>
+        <v>0.56179999999999997</v>
       </c>
       <c r="AT8">
-        <v>0.91700000000000004</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="AU8">
-        <v>0.4486</v>
+        <v>0.53380000000000005</v>
       </c>
       <c r="AV8">
-        <v>0.72560000000000002</v>
+        <v>0.59460000000000002</v>
       </c>
       <c r="AW8">
-        <v>0.71340000000000003</v>
+        <v>0.3891</v>
       </c>
       <c r="AX8">
-        <v>0.70550000000000002</v>
+        <v>0.3599</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.25700000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B9">
-        <v>0.57889999999999997</v>
+        <v>0.25779999999999997</v>
       </c>
       <c r="C9">
-        <v>0.49349999999999999</v>
+        <v>0.72909999999999997</v>
       </c>
       <c r="D9">
-        <v>0.57799999999999996</v>
+        <v>0.84040000000000004</v>
       </c>
       <c r="E9">
-        <v>0.36599999999999999</v>
+        <v>0.81559999999999999</v>
       </c>
       <c r="F9">
-        <v>0.63129999999999997</v>
+        <v>0.81589999999999996</v>
       </c>
       <c r="G9">
-        <v>0.10630000000000001</v>
+        <v>0.62739999999999996</v>
       </c>
       <c r="H9">
-        <v>0.44869999999999999</v>
+        <v>0.73409999999999997</v>
       </c>
       <c r="I9">
-        <v>0.53239999999999998</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="J9">
-        <v>0.72729999999999995</v>
+        <v>0.58069999999999999</v>
       </c>
       <c r="K9">
-        <v>0.73650000000000004</v>
+        <v>0.50439999999999996</v>
       </c>
       <c r="L9">
-        <v>0.38369999999999999</v>
+        <v>0.58720000000000006</v>
       </c>
       <c r="M9">
-        <v>0.82179999999999997</v>
+        <v>0.96909999999999996</v>
       </c>
       <c r="N9">
-        <v>0.82489999999999997</v>
+        <v>0.44979999999999998</v>
       </c>
       <c r="O9">
-        <v>0.89890000000000003</v>
+        <v>0.20349999999999999</v>
       </c>
       <c r="P9">
-        <v>0.74350000000000005</v>
+        <v>0.47760000000000002</v>
       </c>
       <c r="Q9">
-        <v>0.70440000000000003</v>
+        <v>0.89559999999999995</v>
       </c>
       <c r="R9">
-        <v>0.70240000000000002</v>
+        <v>0.84889999999999999</v>
       </c>
       <c r="S9">
-        <v>0.51970000000000005</v>
+        <v>0.76959999999999995</v>
       </c>
       <c r="T9">
-        <v>0.94030000000000002</v>
+        <v>0.72950000000000004</v>
       </c>
       <c r="U9">
-        <v>0.80169999999999997</v>
+        <v>0.9506</v>
       </c>
       <c r="V9">
-        <v>0.49180000000000001</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="W9">
-        <v>0.52059999999999995</v>
+        <v>0.61280000000000001</v>
       </c>
       <c r="X9">
-        <v>0.79530000000000001</v>
+        <v>0.62209999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.65529999999999999</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="Z9">
-        <v>0.49259999999999998</v>
+        <v>0.75990000000000002</v>
       </c>
       <c r="AA9">
-        <v>0.56130000000000002</v>
+        <v>0.42030000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.44469999999999998</v>
+        <v>0.91510000000000002</v>
       </c>
       <c r="AC9">
-        <v>0.8861</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="AD9">
-        <v>0.54579999999999995</v>
+        <v>0.70650000000000002</v>
       </c>
       <c r="AE9">
-        <v>0.498</v>
+        <v>0.56630000000000003</v>
       </c>
       <c r="AF9">
-        <v>0.78400000000000003</v>
+        <v>0.53480000000000005</v>
       </c>
       <c r="AG9">
-        <v>0.93459999999999999</v>
+        <v>0.3296</v>
       </c>
       <c r="AH9">
-        <v>8.6400000000000005E-2</v>
+        <v>0.41520000000000001</v>
       </c>
       <c r="AI9">
-        <v>0.54920000000000002</v>
+        <v>0.66279999999999994</v>
       </c>
       <c r="AJ9">
-        <v>0.55000000000000004</v>
+        <v>0.64429999999999998</v>
       </c>
       <c r="AK9">
-        <v>0.74839999999999995</v>
+        <v>0.27189999999999998</v>
       </c>
       <c r="AL9">
-        <v>0.7712</v>
+        <v>0.45739999999999997</v>
       </c>
       <c r="AM9">
-        <v>0.34050000000000002</v>
+        <v>0.62909999999999999</v>
       </c>
       <c r="AN9">
-        <v>0.44490000000000002</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="AO9">
-        <v>0.73060000000000003</v>
+        <v>0.39450000000000002</v>
       </c>
       <c r="AP9">
-        <v>0.46920000000000001</v>
+        <v>0.433</v>
       </c>
       <c r="AQ9">
-        <v>0.34799999999999998</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="AR9">
-        <v>0.83279999999999998</v>
+        <v>0.58160000000000001</v>
       </c>
       <c r="AS9">
-        <v>0.72650000000000003</v>
+        <v>0.79220000000000002</v>
       </c>
       <c r="AT9">
-        <v>0.89870000000000005</v>
+        <v>0.9415</v>
       </c>
       <c r="AU9">
-        <v>0.44469999999999998</v>
+        <v>0.3266</v>
       </c>
       <c r="AV9">
-        <v>0.82240000000000002</v>
+        <v>0.69169999999999998</v>
       </c>
       <c r="AW9">
-        <v>0.5887</v>
+        <v>0.33389999999999997</v>
       </c>
       <c r="AX9">
-        <v>0.76829999999999998</v>
+        <v>0.2157</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.26340000000000002</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="B10">
-        <v>0.56820000000000004</v>
+        <v>0.33260000000000001</v>
       </c>
       <c r="C10">
-        <v>0.28489999999999999</v>
+        <v>0.72160000000000002</v>
       </c>
       <c r="D10">
-        <v>0.74860000000000004</v>
+        <v>0.70209999999999995</v>
       </c>
       <c r="E10">
-        <v>0.38890000000000002</v>
+        <v>0.76910000000000001</v>
       </c>
       <c r="F10">
-        <v>0.71660000000000001</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="G10">
-        <v>0.1138</v>
+        <v>0.503</v>
       </c>
       <c r="H10">
-        <v>0.43120000000000003</v>
+        <v>0.52090000000000003</v>
       </c>
       <c r="I10">
-        <v>0.63690000000000002</v>
+        <v>0.63529999999999998</v>
       </c>
       <c r="J10">
-        <v>0.70889999999999997</v>
+        <v>0.5353</v>
       </c>
       <c r="K10">
-        <v>0.74250000000000005</v>
+        <v>0.4758</v>
       </c>
       <c r="L10">
-        <v>0.33939999999999998</v>
+        <v>0.70430000000000004</v>
       </c>
       <c r="M10">
-        <v>0.70920000000000005</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="N10">
-        <v>0.90259999999999996</v>
+        <v>0.36130000000000001</v>
       </c>
       <c r="O10">
-        <v>0.9355</v>
+        <v>0.43469999999999998</v>
       </c>
       <c r="P10">
-        <v>0.55220000000000002</v>
+        <v>0.184</v>
       </c>
       <c r="Q10">
-        <v>0.66369999999999996</v>
+        <v>0.9083</v>
       </c>
       <c r="R10">
-        <v>0.55349999999999999</v>
+        <v>0.80420000000000003</v>
       </c>
       <c r="S10">
-        <v>0.63939999999999997</v>
+        <v>0.74429999999999996</v>
       </c>
       <c r="T10">
-        <v>0.95189999999999997</v>
+        <v>0.6381</v>
       </c>
       <c r="U10">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="V10">
         <v>0.77129999999999999</v>
       </c>
-      <c r="V10">
-        <v>0.5323</v>
-      </c>
       <c r="W10">
-        <v>0.50970000000000004</v>
+        <v>0.61270000000000002</v>
       </c>
       <c r="X10">
-        <v>0.88390000000000002</v>
+        <v>0.6643</v>
       </c>
       <c r="Y10">
-        <v>0.436</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="Z10">
-        <v>0.47270000000000001</v>
+        <v>0.63839999999999997</v>
       </c>
       <c r="AA10">
-        <v>0.56699999999999995</v>
+        <v>0.43809999999999999</v>
       </c>
       <c r="AB10">
-        <v>0.48659999999999998</v>
+        <v>0.86829999999999996</v>
       </c>
       <c r="AC10">
-        <v>0.8</v>
+        <v>0.71479999999999999</v>
       </c>
       <c r="AD10">
-        <v>0.66220000000000001</v>
+        <v>0.62180000000000002</v>
       </c>
       <c r="AE10">
-        <v>0.48470000000000002</v>
+        <v>0.65539999999999998</v>
       </c>
       <c r="AF10">
-        <v>0.82420000000000004</v>
+        <v>0.40229999999999999</v>
       </c>
       <c r="AG10">
-        <v>0.98380000000000001</v>
+        <v>0.44829999999999998</v>
       </c>
       <c r="AH10">
-        <v>7.0599999999999996E-2</v>
+        <v>0.35820000000000002</v>
       </c>
       <c r="AI10">
-        <v>0.56230000000000002</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="AJ10">
-        <v>0.78680000000000005</v>
+        <v>0.49280000000000002</v>
       </c>
       <c r="AK10">
-        <v>0.78959999999999997</v>
+        <v>7.1300000000000002E-2</v>
       </c>
       <c r="AL10">
-        <v>0.78239999999999998</v>
+        <v>0.41610000000000003</v>
       </c>
       <c r="AM10">
-        <v>0.58209999999999995</v>
+        <v>0.75149999999999995</v>
       </c>
       <c r="AN10">
-        <v>0.47920000000000001</v>
+        <v>0.76980000000000004</v>
       </c>
       <c r="AO10">
-        <v>0.69199999999999995</v>
+        <v>0.31040000000000001</v>
       </c>
       <c r="AP10">
-        <v>0.51600000000000001</v>
+        <v>0.71750000000000003</v>
       </c>
       <c r="AQ10">
-        <v>0.36030000000000001</v>
+        <v>0.4879</v>
       </c>
       <c r="AR10">
-        <v>0.73470000000000002</v>
+        <v>0.39129999999999998</v>
       </c>
       <c r="AS10">
-        <v>0.59689999999999999</v>
+        <v>0.5363</v>
       </c>
       <c r="AT10">
-        <v>0.88859999999999995</v>
+        <v>0.91510000000000002</v>
       </c>
       <c r="AU10">
-        <v>0.48480000000000001</v>
+        <v>0.28370000000000001</v>
       </c>
       <c r="AV10">
-        <v>0.66210000000000002</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="AW10">
-        <v>0.42530000000000001</v>
+        <v>0.41930000000000001</v>
       </c>
       <c r="AX10">
-        <v>0.60940000000000005</v>
+        <v>0.21579999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8.4599999999999995E-2</v>
+        <v>0.5343</v>
       </c>
       <c r="B11">
-        <v>0.31309999999999999</v>
+        <v>0.68610000000000004</v>
       </c>
       <c r="C11">
-        <v>0.1643</v>
+        <v>0.77680000000000005</v>
       </c>
       <c r="D11">
-        <v>0.64729999999999999</v>
+        <v>0.60929999999999995</v>
       </c>
       <c r="E11">
-        <v>0.49080000000000001</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="F11">
-        <v>0.43459999999999999</v>
+        <v>0.88049999999999995</v>
       </c>
       <c r="G11">
-        <v>0.1358</v>
+        <v>0.48039999999999999</v>
       </c>
       <c r="H11">
-        <v>0.35220000000000001</v>
+        <v>0.71509999999999996</v>
       </c>
       <c r="I11">
-        <v>0.59689999999999999</v>
+        <v>0.70120000000000005</v>
       </c>
       <c r="J11">
-        <v>0.57940000000000003</v>
+        <v>0.66220000000000001</v>
       </c>
       <c r="K11">
-        <v>0.69179999999999997</v>
+        <v>0.52029999999999998</v>
       </c>
       <c r="L11">
-        <v>0.52549999999999997</v>
+        <v>0.4219</v>
       </c>
       <c r="M11">
-        <v>0.61599999999999999</v>
+        <v>0.8337</v>
       </c>
       <c r="N11">
-        <v>0.92049999999999998</v>
+        <v>0.58109999999999995</v>
       </c>
       <c r="O11">
-        <v>0.80530000000000002</v>
+        <v>0.42730000000000001</v>
       </c>
       <c r="P11">
-        <v>0.77310000000000001</v>
+        <v>0.36670000000000003</v>
       </c>
       <c r="Q11">
-        <v>0.66700000000000004</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="R11">
-        <v>0.58309999999999995</v>
+        <v>0.87339999999999995</v>
       </c>
       <c r="S11">
-        <v>0.62519999999999998</v>
+        <v>0.45469999999999999</v>
       </c>
       <c r="T11">
-        <v>0.93930000000000002</v>
+        <v>0.67090000000000005</v>
       </c>
       <c r="U11">
-        <v>0.73340000000000005</v>
+        <v>0.90549999999999997</v>
       </c>
       <c r="V11">
-        <v>0.36230000000000001</v>
+        <v>0.81720000000000004</v>
       </c>
       <c r="W11">
-        <v>0.6</v>
+        <v>0.58140000000000003</v>
       </c>
       <c r="X11">
-        <v>0.80859999999999999</v>
+        <v>0.51859999999999995</v>
       </c>
       <c r="Y11">
-        <v>0.63590000000000002</v>
+        <v>0.32819999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.71399999999999997</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="AA11">
-        <v>0.77949999999999997</v>
+        <v>0.25829999999999997</v>
       </c>
       <c r="AB11">
-        <v>0.54969999999999997</v>
+        <v>0.75060000000000004</v>
       </c>
       <c r="AC11">
-        <v>0.67490000000000006</v>
+        <v>0.7077</v>
       </c>
       <c r="AD11">
-        <v>0.61160000000000003</v>
+        <v>0.64049999999999996</v>
       </c>
       <c r="AE11">
-        <v>0.50109999999999999</v>
+        <v>0.62280000000000002</v>
       </c>
       <c r="AF11">
-        <v>0.83660000000000001</v>
+        <v>0.35449999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.98199999999999998</v>
+        <v>0.3775</v>
       </c>
       <c r="AH11">
-        <v>3.3099999999999997E-2</v>
+        <v>0.63780000000000003</v>
       </c>
       <c r="AI11">
-        <v>0.59760000000000002</v>
+        <v>0.79979999999999996</v>
       </c>
       <c r="AJ11">
-        <v>0.7631</v>
+        <v>0.26819999999999999</v>
       </c>
       <c r="AK11">
-        <v>0.62170000000000003</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.59799999999999998</v>
+        <v>0.47720000000000001</v>
       </c>
       <c r="AM11">
-        <v>0.51639999999999997</v>
+        <v>0.83</v>
       </c>
       <c r="AN11">
-        <v>0.55679999999999996</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="AO11">
-        <v>0.69520000000000004</v>
+        <v>0.46910000000000002</v>
       </c>
       <c r="AP11">
-        <v>0.58709999999999996</v>
+        <v>0.68810000000000004</v>
       </c>
       <c r="AQ11">
-        <v>0.30530000000000002</v>
+        <v>0.82830000000000004</v>
       </c>
       <c r="AR11">
-        <v>0.9052</v>
+        <v>0.18429999999999999</v>
       </c>
       <c r="AS11">
-        <v>0.45519999999999999</v>
+        <v>0.64049999999999996</v>
       </c>
       <c r="AT11">
-        <v>0.91190000000000004</v>
+        <v>0.93340000000000001</v>
       </c>
       <c r="AU11">
-        <v>0.50019999999999998</v>
+        <v>0.3352</v>
       </c>
       <c r="AV11">
-        <v>0.73860000000000003</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="AW11">
-        <v>0.51390000000000002</v>
+        <v>0.5665</v>
       </c>
       <c r="AX11">
-        <v>0.51919999999999999</v>
+        <v>0.13900000000000001</v>
       </c>
     </row>
   </sheetData>
